--- a/xlsx/FR/footprint_pc_no_miss_FR.xlsx
+++ b/xlsx/FR/footprint_pc_no_miss_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Least</t>
   </si>
 </sst>
 </file>
@@ -380,61 +383,76 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0939548732132726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.351781473088028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0625937795266137</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.491669874172086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.177210423141289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.307342989845363</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.262445121937784</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.278089575939978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.310118865071304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.262598539216694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.203501750138456</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.198692734709132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.418715838574134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.0782769978499157</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.471459348397146</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0315478151788044</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/footprint_pc_no_miss_FR.xlsx
+++ b/xlsx/FR/footprint_pc_no_miss_FR.xlsx
@@ -392,16 +392,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0939548732132726</v>
+        <v>0.0860129362782047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.351781473088028</v>
+        <v>0.355262437650894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0625937795266137</v>
+        <v>0.071926974738267</v>
       </c>
       <c r="E2" t="n">
-        <v>0.491669874172086</v>
+        <v>0.486797651332634</v>
       </c>
     </row>
     <row r="3">
@@ -409,16 +409,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.177210423141289</v>
+        <v>0.19677534277686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.307342989845363</v>
+        <v>0.319213322552816</v>
       </c>
       <c r="D3" t="n">
-        <v>0.262445121937784</v>
+        <v>0.252564091742713</v>
       </c>
       <c r="E3" t="n">
-        <v>0.278089575939978</v>
+        <v>0.263378040097894</v>
       </c>
     </row>
     <row r="4">
@@ -426,16 +426,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.310118865071304</v>
+        <v>0.30019444971556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.262598539216694</v>
+        <v>0.253518506427232</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203501750138456</v>
+        <v>0.204359631157741</v>
       </c>
       <c r="E4" t="n">
-        <v>0.198692734709132</v>
+        <v>0.209996615529183</v>
       </c>
     </row>
     <row r="5">
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.418715838574134</v>
+        <v>0.417017271229376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0782769978499157</v>
+        <v>0.0720057333690568</v>
       </c>
       <c r="D5" t="n">
-        <v>0.471459348397146</v>
+        <v>0.471149302361278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0315478151788044</v>
+        <v>0.0398276930402892</v>
       </c>
     </row>
   </sheetData>
